--- a/02-DiscreteMath/TA2/mailsender/mailsender/emails.xlsx
+++ b/02-DiscreteMath/TA2/mailsender/mailsender/emails.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\MMD\UNI\Uni_forms\mailsender\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\MMD\UNI\Others\mailsender\mailsender\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Email</t>
   </si>
@@ -32,254 +32,44 @@
     <t>Sid</t>
   </si>
   <si>
-    <t>bazargani.m@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>harandi.mahdiar@ut.ac.ir</t>
-  </si>
-  <si>
     <t>نام و نام خانوادگی</t>
   </si>
   <si>
-    <t>j.ebrahimi@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>محمدجواد ابراهیمی ترکمان</t>
-  </si>
-  <si>
-    <t>rashid.ahadi2018@gmail.com</t>
-  </si>
-  <si>
-    <t>رشید احدی</t>
-  </si>
-  <si>
-    <t>yasamin.akhavein@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>یاسمین اخوین</t>
-  </si>
-  <si>
-    <t>yassin.adibi@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>یاسین ادیبی</t>
-  </si>
-  <si>
-    <t>iman.arjmandnia@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>ایمان ارجمندنیا</t>
-  </si>
-  <si>
-    <t>simin.eskandari@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>سیمین اسکندری</t>
-  </si>
-  <si>
-    <t>nima.ansari@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>نیما انصاری</t>
-  </si>
-  <si>
-    <t>محمد بازرگانی</t>
-  </si>
-  <si>
-    <t>armita.bahrudi@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>ارمیتا بحرودی</t>
-  </si>
-  <si>
-    <t>banihashemi@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>سیدعلی بنی هاشمی</t>
-  </si>
-  <si>
-    <t>mostafapiruzi@gmail.com</t>
-  </si>
-  <si>
-    <t>مصطفی پیروزی</t>
-  </si>
-  <si>
-    <t>ali.torabi@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>علی ترابی انگجی</t>
-  </si>
-  <si>
-    <t>parham.sabetkar@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>پرهام ثابت کار</t>
-  </si>
-  <si>
-    <t>reyhaneh.hajebi@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>ریحانه حاجبی</t>
-  </si>
-  <si>
-    <t>alyreza.hosseini@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>علیرضا حسینی</t>
-  </si>
-  <si>
-    <t>ali.khanmohammadi@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>علی خان محمدی</t>
-  </si>
-  <si>
-    <t>erfan.daraei64b@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>عرفان دارائی</t>
-  </si>
-  <si>
-    <t>shahabrakhsha@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>شهاب رخشا</t>
-  </si>
-  <si>
-    <t>amirrafatpanah@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>امیرمحمد رفعت پناه</t>
-  </si>
-  <si>
-    <t>navid.zare@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>نوید زارع</t>
-  </si>
-  <si>
-    <t>mahdi.zarezadeh@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>سید مهدی زارع زاده ابرقویی</t>
-  </si>
-  <si>
-    <t>ali.samanian@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>علی سامانیان</t>
-  </si>
-  <si>
-    <t>majid.sepahi@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>مجید سپاهی</t>
-  </si>
-  <si>
-    <t>mojtaba.sattar@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>مجتبی ستار</t>
-  </si>
-  <si>
-    <t>mahdiyehseyfi@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>مهدیه سیفی</t>
-  </si>
-  <si>
-    <t>armeen.shabahang@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>ارمین شباهنگ</t>
-  </si>
-  <si>
-    <t>asalehighaleh@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>امیرحسین صالحی قلعه سری</t>
-  </si>
-  <si>
-    <t>nikan.gholami@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>نیکان غلامی</t>
-  </si>
-  <si>
-    <t>amir.ashkan.ghasemi.2000@gmail.com</t>
-  </si>
-  <si>
-    <t>امیر اشکان قاسمی</t>
-  </si>
-  <si>
-    <t>ghasemi.saeed@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>سعید قاسمی</t>
-  </si>
-  <si>
-    <t>nima.qotbi@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>نیما قطبی</t>
-  </si>
-  <si>
-    <t>alirezakamkar@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>علیرضا کامکارفتیده</t>
-  </si>
-  <si>
-    <t>hmohseni@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>همایون محسنی</t>
-  </si>
-  <si>
-    <t>ar.mohammadabadi@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>احمدرضا محمدابادی</t>
-  </si>
-  <si>
-    <t>n.elyasi71@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>نرگس محمدی الیاسی</t>
-  </si>
-  <si>
-    <t>810198546@email.invalid</t>
-  </si>
-  <si>
-    <t>مهدیه مختاری</t>
-  </si>
-  <si>
-    <t>Shakibamansouri2002@gmail.com</t>
-  </si>
-  <si>
-    <t>شکیبا منصوری</t>
-  </si>
-  <si>
-    <t>faezehmooseli@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>فائزه موصلی</t>
-  </si>
-  <si>
-    <t>hosein.mirhosein@ut.ac.ir</t>
-  </si>
-  <si>
-    <t>سیدحسین میرحسینی</t>
-  </si>
-  <si>
-    <t>مهدیار هرندی</t>
+    <t>a@ut.ac.ir</t>
+  </si>
+  <si>
+    <t>b@gmail.com</t>
+  </si>
+  <si>
+    <t>c@ut.ac.ir</t>
+  </si>
+  <si>
+    <t>d@ut.ac.ir</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>YOUREMAIL@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -297,6 +87,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -349,10 +146,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -370,8 +168,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -652,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -670,488 +472,278 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6">
-        <v>810100076</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="B3" s="6">
-        <v>810100580</v>
+        <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6">
-        <v>810100079</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6">
-        <v>810198497</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="6">
-        <v>810100568</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="6">
-        <v>810100240</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>16</v>
-      </c>
+    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="6">
-        <v>810199562</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="6">
-        <v>810198360</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
+    <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="6">
-        <v>610100012</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>21</v>
-      </c>
+    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="6">
-        <v>810100245</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>23</v>
-      </c>
+    <row r="11" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="6">
-        <v>810100576</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>25</v>
-      </c>
+    <row r="12" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="6">
-        <v>810198501</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>27</v>
-      </c>
+    <row r="13" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="6">
-        <v>811900018</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>29</v>
-      </c>
+    <row r="14" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="6">
-        <v>810100116</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>31</v>
-      </c>
+    <row r="15" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="6">
-        <v>810100125</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>33</v>
-      </c>
+    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="6">
-        <v>810199578</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>35</v>
-      </c>
+    <row r="17" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="6">
-        <v>810100139</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>37</v>
-      </c>
+    <row r="18" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="6">
-        <v>810199423</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>39</v>
-      </c>
+    <row r="19" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="6">
-        <v>810100152</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>41</v>
-      </c>
+    <row r="20" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="6">
-        <v>810098053</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>43</v>
-      </c>
+    <row r="21" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="6">
-        <v>810100072</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>45</v>
-      </c>
+    <row r="22" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="6">
-        <v>810100161</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>47</v>
-      </c>
+    <row r="23" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="6">
-        <v>810100163</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>49</v>
-      </c>
+    <row r="24" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="6">
-        <v>810100578</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>51</v>
-      </c>
+    <row r="25" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="6">
-        <v>810100167</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>53</v>
-      </c>
+    <row r="26" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="6">
-        <v>810100170</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>55</v>
-      </c>
+    <row r="27" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="6">
-        <v>810199448</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>57</v>
-      </c>
+    <row r="28" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="6">
-        <v>810001001</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>59</v>
-      </c>
+    <row r="29" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="6">
-        <v>810101075</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>61</v>
-      </c>
+    <row r="30" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="6">
-        <v>810199467</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>63</v>
-      </c>
+    <row r="31" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="6">
-        <v>810199470</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>65</v>
-      </c>
+    <row r="32" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="6">
-        <v>810100202</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>67</v>
-      </c>
+    <row r="33" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="6">
-        <v>810000004</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>69</v>
-      </c>
+    <row r="34" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="6">
-        <v>810199485</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>71</v>
-      </c>
+    <row r="35" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="6">
-        <v>810100258</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>73</v>
-      </c>
+    <row r="36" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="6">
-        <v>810198546</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>75</v>
-      </c>
+    <row r="37" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="6">
-        <v>810199582</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>77</v>
-      </c>
+    <row r="38" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="6">
-        <v>810099003</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>79</v>
-      </c>
+    <row r="39" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="6">
-        <v>810197596</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>81</v>
-      </c>
+    <row r="40" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="6">
-        <v>810199596</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>82</v>
-      </c>
+    <row r="41" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1443,7 +1035,14 @@
       <c r="D89" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>